--- a/TestCase/TestCase.xlsx
+++ b/TestCase/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MonThayThe\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74DE933-86C2-4216-B6D4-F5E6D56D08D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1818FEC-5BA0-42A7-86D3-34F2ABA1EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F7BB2C0-898B-48BE-A048-B6DF74468B8B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="135">
   <si>
     <t>CASE</t>
   </si>
@@ -59,18 +59,12 @@
     <t>Hiển thị đúng hàng mới</t>
   </si>
   <si>
-    <t>10 mặt hàng bán chạy nhất</t>
-  </si>
-  <si>
     <t>Hiển thị đúng hàng bán chạy</t>
   </si>
   <si>
     <t>Tổng hợp OrderDetail</t>
   </si>
   <si>
-    <t>10 mặt hàng có doanh thu cao nhất</t>
-  </si>
-  <si>
     <t>Giao diện</t>
   </si>
   <si>
@@ -122,15 +116,6 @@
     <t>Điều chỉnh số lượng sản phẩm</t>
   </si>
   <si>
-    <t>(1@gmail.com, 123456), (1gamil.com, 321321)</t>
-  </si>
-  <si>
-    <t>Thông báo tên đăng nhập hoặc mật khẩu không chính xác</t>
-  </si>
-  <si>
-    <t>(nam@gmail.com,123456)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Hộp thoại xác nhận xóa hiện lên, khi nhấn xóa thành công tổng tiền tự động giảm</t>
   </si>
   <si>
@@ -146,66 +131,15 @@
     <t>Hồ sơ</t>
   </si>
   <si>
-    <t>Dach sách địa chỉ</t>
-  </si>
-  <si>
-    <t>Bảng address</t>
-  </si>
-  <si>
-    <t>Chuyển giao diện hiển thị danh sách địa chỉ</t>
-  </si>
-  <si>
     <t>Thêm địa chỉ mới</t>
   </si>
   <si>
-    <t>Thêm thành công</t>
-  </si>
-  <si>
-    <t>(Nhật, 0348770888,102 Lã Xuân Oai, Tăng Nhơn Phú A, Tp Thủ Đức, TPHCM)</t>
-  </si>
-  <si>
-    <t>123456,654321,654321</t>
-  </si>
-  <si>
-    <t>Thông báo thay đổi mật khẩu thành công</t>
-  </si>
-  <si>
-    <t>Thay đổi mật khẩu đúng</t>
-  </si>
-  <si>
-    <t>'123456,654321,654321</t>
-  </si>
-  <si>
-    <t>Thay đổi mật khẩu sai</t>
-  </si>
-  <si>
-    <t>Thông báo lỗi cụ thể</t>
-  </si>
-  <si>
-    <t>Xem đơn hàng của tôi</t>
-  </si>
-  <si>
-    <t>Hiển thị giao diện đơn hàng</t>
-  </si>
-  <si>
     <t>Đăng ký</t>
   </si>
   <si>
     <t>Bỏ trống</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Yêu cầu nhập đầy đủ thông tin</t>
-  </si>
-  <si>
-    <t>Trùng email đăng ký</t>
-  </si>
-  <si>
-    <t>Thông báo email đã được đăng ký</t>
-  </si>
-  <si>
     <t>Đăng ký thành công</t>
   </si>
   <si>
@@ -215,40 +149,302 @@
     <t>(nhat1@gmai.com,le,nhat,123456,</t>
   </si>
   <si>
-    <t>nhat@gmail.com</t>
-  </si>
-  <si>
-    <t>Loại sản phẩm</t>
-  </si>
-  <si>
-    <t>Chọn danh mục</t>
-  </si>
-  <si>
     <t>Mặt nạ</t>
   </si>
   <si>
     <t>Hiển thị các sản phẩm thuộc loại sản phẩm mặt nạ</t>
   </si>
   <si>
-    <t>Khuyến mãi</t>
-  </si>
-  <si>
-    <t>Bỏ trống thông tin</t>
-  </si>
-  <si>
-    <t>Phần trăm giảm giá nhỏ hơn 0 và lớn hơn 100</t>
-  </si>
-  <si>
-    <t>Thông báo lỗi phần trăm giảm giá</t>
-  </si>
-  <si>
-    <t>Thống kê</t>
-  </si>
-  <si>
-    <t>Chọn thời gian thống kê</t>
-  </si>
-  <si>
-    <t>Hiển thị đúng kết quả</t>
+    <t>20 mặt hàng có doanh thu cao nhất</t>
+  </si>
+  <si>
+    <t>Các mặt hàng mới nhất</t>
+  </si>
+  <si>
+    <t>Thông báo Email hoặc mật khẩu không đúng</t>
+  </si>
+  <si>
+    <t>Tài khoản bị khóa</t>
+  </si>
+  <si>
+    <t>(khubat2001.@gmail.com,123456)</t>
+  </si>
+  <si>
+    <t>Thông báo tài khoản đã bị khóa</t>
+  </si>
+  <si>
+    <t>Đăng ký email đã tồn tại</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu không trùng nhau</t>
+  </si>
+  <si>
+    <t>Thông báo email đã được sử dụng</t>
+  </si>
+  <si>
+    <t>(123456,123455)</t>
+  </si>
+  <si>
+    <t>Thông báo mật khẩu không trùng nhau</t>
+  </si>
+  <si>
+    <t>(1nam@gmail.com, 123455), (1gamil.com, 321321)</t>
+  </si>
+  <si>
+    <t>(1nam@gmail.com,123456)</t>
+  </si>
+  <si>
+    <t>(1nam@gmail.com)</t>
+  </si>
+  <si>
+    <t>Email không đúng định dạng</t>
+  </si>
+  <si>
+    <t>(1namgmail.com)</t>
+  </si>
+  <si>
+    <t>Thông báo email không đúng đinh dạng</t>
+  </si>
+  <si>
+    <t>Quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Email chưa đăng ký</t>
+  </si>
+  <si>
+    <t>Thông báo không tìm thấy tài khoản</t>
+  </si>
+  <si>
+    <t>Đúng email</t>
+  </si>
+  <si>
+    <t>(111@gmail.com)</t>
+  </si>
+  <si>
+    <t>(hhnam275@gmail.com)</t>
+  </si>
+  <si>
+    <t>Gửi email kèm mã OTP</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Nhập đúng thông tin</t>
+  </si>
+  <si>
+    <t>(2@gmai.com,nam,nhat,123456,123456)</t>
+  </si>
+  <si>
+    <t>Cập nhật thành công</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Nhập sai mật khẩu cũ</t>
+  </si>
+  <si>
+    <t>Thông báo sai mật khẩu cũ</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới và xác nhận mật khẩu không trùng nhau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ </t>
+  </si>
+  <si>
+    <t>(Tam Lam  0343490888
+97 man thiện
+Xã An Bá , Huyện Sơn Động, Tỉnh Bắc Giang)</t>
+  </si>
+  <si>
+    <t>Thông báo thêm địa chỉ mới thành công</t>
+  </si>
+  <si>
+    <t>Cập nhật địa chỉ</t>
+  </si>
+  <si>
+    <t>(Tam Lam1  0343490888
+97 man thiện
+Xã An Bá , Huyện Sơn Động, Tỉnh Bắc Giang)</t>
+  </si>
+  <si>
+    <t>Thông báo cập nhật địa chỉ thành công</t>
+  </si>
+  <si>
+    <t>Xóa địa chỉ</t>
+  </si>
+  <si>
+    <t>Xóa địa chỉ thành công</t>
+  </si>
+  <si>
+    <t>Đặt địa chỉ làm mặc đinh</t>
+  </si>
+  <si>
+    <t>Hiển thị địa chỉ đã chọn thành địa chỉ mặc định</t>
+  </si>
+  <si>
+    <t>Xem sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin sản phẩm được chọn</t>
+  </si>
+  <si>
+    <t>Lọc sản phẩm theo loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sản phẩm theo tên: không tìm thấy</t>
+  </si>
+  <si>
+    <t>hehe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông báo không tìm thấy sản phẩm </t>
+  </si>
+  <si>
+    <t>Tìm kiếm sản phẩm theo tên:  tìm thấy</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>Hiển thị sản phẩm trùng kết quả</t>
+  </si>
+  <si>
+    <t>Sắp xếp sản phẩm theo giá</t>
+  </si>
+  <si>
+    <t>Sắp xếp sản phẩm theo giá tăng hoặc giảm</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách sản phẩm theo giá tăng hoặc giảm</t>
+  </si>
+  <si>
+    <t>Sắp xếp sản phẩm mới nhất</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách sản phẩm theo thứ tự mới nhất giảm dần</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>Thông báo cần đăng nhập</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vượt quá số lượng tồn</t>
+  </si>
+  <si>
+    <t>Thông báo số lượng sản phẩm thêm vào hơn số lượng tồn</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thông báo thêm sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>Xóa 1 sản phẩm khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>Click button xóa sản phẩm</t>
+  </si>
+  <si>
+    <t>Thông báo: Hiển thị thông báo xác nhận xóa sản phẩm</t>
+  </si>
+  <si>
+    <t>Cập nhật số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Thêm hoặc giảm số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Tăng giảm tổng tiền tổng số sản phẩm trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Đặt hàng khi chưa có địa chỉ nhận hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị modal thêm địa chỉ nhận hàng</t>
+  </si>
+  <si>
+    <t>Thông báo: Đặt hàng thành công! Sau đó chuyển hướng tới giao diện đơn hàng của người dùng</t>
+  </si>
+  <si>
+    <t>Đặt hàng khi có địa chỉ và phương thức thanh toán là thanh toán khi nhận hàng</t>
+  </si>
+  <si>
+    <t>Đặt hàng khi có địa chỉ và phương thức nhận hàng là thanh toán là VNPAY</t>
+  </si>
+  <si>
+    <t>Chuyển sang trang thanh toán của VNPay</t>
+  </si>
+  <si>
+    <t>Đơn hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách đơn hàng đã đặt</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách đơn hàng người dùng đã đặt</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết đơn hàng được chọn</t>
+  </si>
+  <si>
+    <t>OrderDetail</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết đơn hàng đã chọn</t>
+  </si>
+  <si>
+    <t>Hủy đơn hàng</t>
+  </si>
+  <si>
+    <t>Khi đơn hàng đang ở trạng thái "Chờ xác nhân" thì có thể hủy đơn hàng. Đơn hàng sẽ chuyển qua trạng thái "Yêu cầu hủy".</t>
+  </si>
+  <si>
+    <t>Xem đơn hàng theo trạng thái</t>
+  </si>
+  <si>
+    <t>Hiển thị các đơn hàng của người dùng theo trạng thái</t>
+  </si>
+  <si>
+    <t>Đánh giá sản phẩm</t>
+  </si>
+  <si>
+    <t>Bình luận thành công</t>
+  </si>
+  <si>
+    <t>Thông báo bình luận thành công</t>
+  </si>
+  <si>
+    <t>Quản lý người dùng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách người dùng</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Hiển thị người dùng đã  bị khóa</t>
+  </si>
+  <si>
+    <t>Khóa người dùng</t>
+  </si>
+  <si>
+    <t>Cập nhật người dùng: để trống</t>
   </si>
 </sst>
 </file>
@@ -392,7 +588,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -414,15 +610,10 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,6 +624,37 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -754,91 +976,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3833073C-0FDF-4646-9B15-435413315204}">
-  <dimension ref="B2:F38"/>
+  <dimension ref="B3:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.90625" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" customWidth="1"/>
     <col min="4" max="4" width="45.7265625" customWidth="1"/>
-    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="5" max="5" width="47.08984375" customWidth="1"/>
     <col min="6" max="6" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="8">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -847,442 +1054,1157 @@
         <v>1.3</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="10">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="8">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="8">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="10">
         <v>3.1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="18">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="14">
-        <v>4.3</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="14">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="22">
-        <v>5</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15"/>
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="14">
-        <v>5.2</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>52</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="14">
-        <v>5.3</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="15"/>
+      <c r="B27" s="22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="14">
-        <v>5.4</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="B28" s="22">
+        <v>4.2</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="22">
+        <v>4.3</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="29">
+        <v>5</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="17">
         <v>6</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="14">
+      <c r="C33" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="3">
         <v>6.1</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="17">
+        <v>7</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="17">
+        <v>8</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="2:6" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="17">
+        <v>9</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="17">
+        <v>10</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="17">
+        <v>11</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="2:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="2:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="2:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="13">
+        <v>11.4</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67" s="38">
         <v>12</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="C67" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="13">
+        <v>12.1</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="13">
+        <v>12.3</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="2:6" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B73" s="19">
         <v>13</v>
       </c>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="14">
-        <v>6.2</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="22">
-        <v>7</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="14">
-        <v>7.1</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="C73" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B74" s="13">
+        <v>13.1</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="17" t="s">
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="14">
-        <v>7.2</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="14">
-        <v>7.3</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="22">
-        <v>8</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="14">
-        <v>8.1</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="15"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B76" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B77" s="19">
+        <v>14</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B78" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B79" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B80" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B81" s="13">
+        <v>14.4</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1" xr:uid="{F952FCC5-AB58-44C5-A6CA-E45227864237}"/>
+    <hyperlink ref="D18" r:id="rId1" display="1@gmail.com" xr:uid="{EAC813C1-9ACE-4D33-834C-96F36CEBE8A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCase/TestCase.xlsx
+++ b/TestCase/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MonThayThe\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1818FEC-5BA0-42A7-86D3-34F2ABA1EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3365A12F-FE12-4E42-A3B3-44F38AFCB8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F7BB2C0-898B-48BE-A048-B6DF74468B8B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="155">
   <si>
     <t>CASE</t>
   </si>
@@ -445,6 +445,66 @@
   </si>
   <si>
     <t>Cập nhật người dùng: để trống</t>
+  </si>
+  <si>
+    <t>Cập nhật đúng</t>
+  </si>
+  <si>
+    <t>Thông báo cập nhật thành công</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị bảng sản phẩm</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm</t>
+  </si>
+  <si>
+    <t>Nhập đúng thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách đơn hàng</t>
+  </si>
+  <si>
+    <t>Quản lý loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Quản lý nhãn hiệu</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách nhãn hiệu</t>
+  </si>
+  <si>
+    <t>Quản lý khuyến mãi</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách khuyến mãi</t>
+  </si>
+  <si>
+    <t>Quản lý nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Quản lý phiếu nhập</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách phiếu nhập</t>
+  </si>
+  <si>
+    <t>Thống kê</t>
   </si>
 </sst>
 </file>
@@ -588,7 +648,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -628,14 +688,14 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,7 +705,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -976,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3833073C-0FDF-4646-9B15-435413315204}">
-  <dimension ref="B3:F101"/>
+  <dimension ref="B3:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,8 +1475,8 @@
       <c r="C33" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
@@ -1456,7 +1515,7 @@
         <v>67</v>
       </c>
       <c r="D36" s="16"/>
-      <c r="E36" s="35"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
@@ -1517,11 +1576,11 @@
       <c r="B41" s="17">
         <v>8</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="33" t="s">
         <v>71</v>
       </c>
       <c r="D41" s="16"/>
-      <c r="E41" s="35"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1602,7 +1661,7 @@
       <c r="C47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="32"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="2" t="s">
         <v>80</v>
       </c>
@@ -1615,7 +1674,7 @@
       <c r="C48" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="33"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
     </row>
@@ -1868,10 +1927,10 @@
       <c r="F66" s="13"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="38">
+      <c r="B67" s="37">
         <v>12</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="35" t="s">
         <v>115</v>
       </c>
       <c r="D67" s="16"/>
@@ -1953,12 +2012,12 @@
       <c r="B73" s="19">
         <v>13</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="13">
@@ -2005,12 +2064,12 @@
       <c r="B77" s="19">
         <v>14</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="13">
@@ -2057,150 +2116,426 @@
       <c r="B81" s="13">
         <v>14.4</v>
       </c>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
+      <c r="E81" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="F81" s="13"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
+      <c r="B82" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="F82" s="13"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
+      <c r="B83" s="19">
+        <v>15</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
+      <c r="B84" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="B85" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
+      <c r="B86" s="19">
+        <v>16</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
+      <c r="B87" s="13">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
+      <c r="E87" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F87" s="13"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
+      <c r="B88" s="13">
+        <v>16.2</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
+      <c r="E88" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="F88" s="13"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
+      <c r="B89" s="13">
+        <v>16.3</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="F89" s="13"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
+      <c r="B90" s="19">
+        <v>17</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
+      <c r="B91" s="13">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="F91" s="13"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
+      <c r="B92" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="F92" s="13"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
+      <c r="B93" s="19">
+        <v>18</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
+      <c r="B94" s="13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
+      <c r="E94" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="F94" s="13"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
+      <c r="B95" s="13">
+        <v>18.2</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="F95" s="13"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
+      <c r="B96" s="19">
+        <v>19</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="13">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
+      <c r="E97" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="F97" s="13"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
+      <c r="B98" s="13">
+        <v>19.2</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="F98" s="13"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
+      <c r="B99" s="19">
+        <v>20</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
+      <c r="B100" s="13">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
+      <c r="E100" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="F100" s="13"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
+      <c r="B101" s="13">
+        <v>20.2</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="F101" s="13"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B102" s="19">
+        <v>21</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="13">
+        <v>21.1</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F103" s="13"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B104" s="13">
+        <v>21.2</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="13"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B105" s="37">
+        <v>22</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B106" s="13">
+        <v>22.1</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B107" s="13">
+        <v>22.2</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B108" s="19">
+        <v>23</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B109" s="13">
+        <v>23.1</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
